--- a/biology/Botanique/Abies_spectabilis/Abies_spectabilis.xlsx
+++ b/biology/Botanique/Abies_spectabilis/Abies_spectabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sapin de l'Himalaya oriental (Abies spectabilis) est une espèce de plantes de la famille des Pinacées. C'est un conifère dont la zone de répartition couvre l'Himalaya depuis l'Afghanistan jusqu'au Bhoutan.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sapin de l'Himalaya mesure jusque 50 m de hauteur pour 1,5 m de circonférence[réf. nécessaire]. Il a une cime conique clairsemée présentant souvent un aspect décharné. Ses aiguilles mesurent de 2,5 à 6 cm pour une largeur de 2,5 à 3,5 mm[réf. nécessaire]. Elles sont vertes sur le dessus et argentées sur le dessous avec deux rangées de stomates. Les cônes sont de 14 à 18 cm pour 5 à 6 cm de large[réf. nécessaire]. Ils sont d'abord violets puis deviennent bruns à maturité. Les graines font un centimètre de long avec une aile cunéiforme.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa zone de répartition couvre l'Himalaya depuis l'Afghanistan jusqu'au Bhoutan : Afghanistan, Chine (Tibet), sous-continent indien, Népal, Pakistan, ouest Himalayen.
 On le trouve entre 2 600 et 3 800 m d'altitude[réf. nécessaire]. Il préfère les substrats neutres ou acides. Il apprécie des étés pluvieux.
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sapin de l'Himalaya, sapin de Webb, sapin du Sikkim, sapin de l'est de l'Himalaya (en anglais : East Himalayan Fir).
 </t>
